--- a/pre_processing/mode_training.xlsx
+++ b/pre_processing/mode_training.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -461,8 +461,10 @@
           <t>gender</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.021</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -472,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.365</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +484,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.654</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +494,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.639</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
